--- a/public/data/lime/lime_table_gambia.xlsx
+++ b/public/data/lime/lime_table_gambia.xlsx
@@ -1306,34 +1306,34 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>7.15</v>
+        <v>1.48</v>
       </c>
       <c r="E2" t="n">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.92</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>8.07</v>
+        <v>1.93</v>
       </c>
       <c r="K2" t="n">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1380,10 +1380,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -1400,34 +1400,34 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>6.37</v>
+        <v>1.9</v>
       </c>
       <c r="E4" t="n">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>5.13</v>
+        <v>0.49</v>
       </c>
       <c r="K4" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1494,34 +1494,34 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>8.06</v>
+        <v>1.41</v>
       </c>
       <c r="E6" t="n">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>8.6</v>
+        <v>0.83</v>
       </c>
       <c r="K6" t="n">
-        <v>3.02</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1541,19 +1541,19 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>6.39</v>
+        <v>2.18</v>
       </c>
       <c r="E7" t="n">
-        <v>2.72</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1588,19 +1588,19 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>5.89</v>
+        <v>1.87</v>
       </c>
       <c r="E8" t="n">
-        <v>2.28</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1635,16 +1635,16 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>10.23</v>
+        <v>5.05</v>
       </c>
       <c r="E9" t="n">
-        <v>6.78</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.87</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1662,7 +1662,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1691,7 +1691,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1709,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>98</v>
       </c>
       <c r="D12" t="n">
-        <v>10.6</v>
+        <v>5.38</v>
       </c>
       <c r="E12" t="n">
-        <v>7.33</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>3.6</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1794,16 +1794,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>6.37</v>
+        <v>1.36</v>
       </c>
       <c r="K12" t="n">
-        <v>2.76</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1841,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>6.43</v>
+        <v>1.52</v>
       </c>
       <c r="K13" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>7.76</v>
+        <v>2.23</v>
       </c>
       <c r="K14" t="n">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1917,16 +1917,16 @@
         <v>102</v>
       </c>
       <c r="D15" t="n">
-        <v>6.48</v>
+        <v>0.78</v>
       </c>
       <c r="E15" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1935,16 +1935,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>6.83</v>
+        <v>1.42</v>
       </c>
       <c r="K15" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2058,37 +2058,37 @@
         <v>105</v>
       </c>
       <c r="D18" t="n">
-        <v>8.05</v>
+        <v>1.42</v>
       </c>
       <c r="E18" t="n">
-        <v>3.14</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>9.01</v>
+        <v>1.53</v>
       </c>
       <c r="K18" t="n">
-        <v>3.42</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2264,16 +2264,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5.62</v>
+        <v>0.2</v>
       </c>
       <c r="K22" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>4.41</v>
+        <v>0.49</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2593,19 +2593,19 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>6.04</v>
+        <v>0.95</v>
       </c>
       <c r="K29" t="n">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -2622,34 +2622,34 @@
         <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>8.45</v>
+        <v>2.13</v>
       </c>
       <c r="E30" t="n">
-        <v>3.66</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.26</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.24</v>
+        <v>1.48</v>
       </c>
       <c r="K30" t="n">
-        <v>2.39</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2678,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.99</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2687,16 +2687,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>6.12</v>
+        <v>0.1</v>
       </c>
       <c r="K31" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -2734,16 +2734,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.56</v>
+        <v>1.11</v>
       </c>
       <c r="K32" t="n">
-        <v>0.57</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2772,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -2781,16 +2781,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.34</v>
+        <v>1.38</v>
       </c>
       <c r="K33" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2810,7 +2810,7 @@
         <v>123</v>
       </c>
       <c r="D34" t="n">
-        <v>5.73</v>
+        <v>1.23</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -2819,7 +2819,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -2828,16 +2828,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>6.08</v>
+        <v>0.88</v>
       </c>
       <c r="K34" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
